--- a/PMCTestData/TestData.xlsx
+++ b/PMCTestData/TestData.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ynr0fpb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalam/eclipse-workspace/Hybrid_Project/PMCTestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510B79D3-2C0E-F045-82AB-35970EF830A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="8424"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,20 +366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,19 +387,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3:A5" r:id="rId3" display="alammohammed79@gmail.com" xr:uid="{8D1313E7-2F8C-6B41-B1BC-552E6B887508}"/>
+    <hyperlink ref="B3:B5" r:id="rId4" display="SAYEDawan2008@" xr:uid="{F589F05E-2EB5-E949-A3D8-E241E254AD82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD18886C-680A-174B-B98B-652F5BBC7A8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240C578D-DD61-ED4F-8496-63266C39644B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>